--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3845047.558632317</v>
+        <v>3842795.478921108</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>346.4972151881726</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>113.6883373826042</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>164.2100716448883</v>
+        <v>94.17933574607773</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -880,7 +880,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2882635917094</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>99.84252126103705</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>13.02719212039671</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>23.35772589727819</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>142.3478174606662</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>393.6141792262796</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>17.1579442152432</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444112</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>160.1763464053443</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695732</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>123.9815576456779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.317805417867</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710094</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,10 +4192,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1879.82957821044</v>
+        <v>1197.073083428566</v>
       </c>
       <c r="C2" t="n">
-        <v>1510.867061270028</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="D2" t="n">
-        <v>1510.867061270028</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1125.078808671784</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>714.0929038821764</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520488</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250373</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2656.568750250373</v>
+        <v>1698.509627919561</v>
       </c>
       <c r="Y2" t="n">
-        <v>2266.429418274562</v>
+        <v>1583.672923492688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4383,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4431,22 +4431,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>622.8136871311516</v>
+        <v>477.468889025756</v>
       </c>
       <c r="C4" t="n">
-        <v>622.8136871311516</v>
+        <v>308.5327060978491</v>
       </c>
       <c r="D4" t="n">
-        <v>622.8136871311516</v>
+        <v>308.5327060978491</v>
       </c>
       <c r="E4" t="n">
-        <v>622.8136871311516</v>
+        <v>308.5327060978491</v>
       </c>
       <c r="F4" t="n">
-        <v>475.9237396332412</v>
+        <v>161.6427585999387</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1361.01298720966</v>
+        <v>1169.327103036487</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.595817172699</v>
+        <v>879.9099329995258</v>
       </c>
       <c r="X4" t="n">
-        <v>843.6062662746817</v>
+        <v>879.9099329995258</v>
       </c>
       <c r="Y4" t="n">
-        <v>622.8136871311516</v>
+        <v>659.1173538559957</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2148.434869859537</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C5" t="n">
-        <v>1779.472352919126</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D5" t="n">
-        <v>1421.206654312375</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E5" t="n">
-        <v>1035.418401714131</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>624.4324969245233</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>209.3600467695198</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,22 +4565,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923659</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2535.034709923659</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2535.034709923659</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>2535.034709923659</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218343</v>
@@ -4647,25 +4647,25 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1007.446783179745</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>838.5106002518386</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>688.3939608395028</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>540.4808672571097</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>393.5909197591993</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>225.8880831339183</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>79.67089635177607</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4726,16 +4726,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1637.877378051533</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1409.887827153515</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>1189.095248009985</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1661.138951213862</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1661.138951213862</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>1302.873252607112</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>917.0850000088674</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>506.0990952192598</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4823,7 +4823,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189674</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,13 +4884,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1708.010285469454</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1453.325797263567</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1163.908627226606</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>935.919076328589</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.1264971850588</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168585</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362659</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
@@ -5048,13 +5048,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694705</v>
@@ -5063,28 +5063,28 @@
         <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797182</v>
+        <v>243.4633055756264</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797182</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637302</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684174</v>
+        <v>2222.001901828444</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188007</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
         <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
         <v>826.140538179774</v>
@@ -5218,31 +5218,31 @@
         <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490404</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5267,61 +5267,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>924.834428639718</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5419,28 +5419,28 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192662</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,16 +5747,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122713</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,22 +6303,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6449,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,13 +6482,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6780,22 +6780,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7020,22 +7020,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,16 +7072,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,16 +7166,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7400,61 +7400,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397183</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.167155344068306e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>57.22910392194396</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682521549</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.31459260779044</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>24.63391537253442</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440187</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,10 +26080,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>647286.3630150413</v>
+        <v>647286.3630150415</v>
       </c>
     </row>
     <row r="4">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>636517.6061299765</v>
+        <v>636517.6061299763</v>
       </c>
     </row>
     <row r="10">
@@ -26314,10 +26314,10 @@
         <v>800515.7256176757</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176758</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
@@ -26329,22 +26329,22 @@
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977554</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977554</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786967.9346977558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786967.9346977558</v>
-      </c>
       <c r="M2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
@@ -26353,7 +26353,7 @@
         <v>786967.9346977558</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073545</v>
+        <v>325412.4618073546</v>
       </c>
       <c r="F3" t="n">
-        <v>5.922435289464595e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551164</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.603863030829297e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815701</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815704</v>
+        <v>90964.01098815708</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680594</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680587</v>
+        <v>11776.97621680592</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680588</v>
       </c>
       <c r="H4" t="n">
         <v>11776.97621680584</v>
       </c>
       <c r="I4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11776.97621680581</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="L4" t="n">
         <v>11776.97621680584</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680582</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11776.97621680585</v>
-      </c>
-      <c r="L4" t="n">
-        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
         <v>11776.97621680584</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680588</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680574</v>
       </c>
       <c r="P4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727126.9716594673</v>
+        <v>-727126.9716594678</v>
       </c>
       <c r="C6" t="n">
-        <v>601617.7740681254</v>
+        <v>601617.7740681256</v>
       </c>
       <c r="D6" t="n">
-        <v>601617.7740681254</v>
+        <v>601617.7740681253</v>
       </c>
       <c r="E6" t="n">
-        <v>348655.9668496884</v>
+        <v>348621.2289242527</v>
       </c>
       <c r="F6" t="n">
-        <v>674068.4286570423</v>
+        <v>674033.690731607</v>
       </c>
       <c r="G6" t="n">
-        <v>674068.4286570429</v>
+        <v>674033.6907316073</v>
       </c>
       <c r="H6" t="n">
-        <v>674068.428657043</v>
+        <v>674033.6907316069</v>
       </c>
       <c r="I6" t="n">
-        <v>674068.4286570428</v>
+        <v>674033.6907316068</v>
       </c>
       <c r="J6" t="n">
-        <v>456537.2262597648</v>
+        <v>456502.4883343298</v>
       </c>
       <c r="K6" t="n">
-        <v>674068.4286570429</v>
+        <v>674033.690731607</v>
       </c>
       <c r="L6" t="n">
-        <v>674068.4286570428</v>
+        <v>674033.6907316071</v>
       </c>
       <c r="M6" t="n">
-        <v>589013.4007215311</v>
+        <v>588978.6627960954</v>
       </c>
       <c r="N6" t="n">
-        <v>674068.4286570429</v>
+        <v>674033.6907316073</v>
       </c>
       <c r="O6" t="n">
-        <v>674068.4286570429</v>
+        <v>674033.6907316074</v>
       </c>
       <c r="P6" t="n">
-        <v>674068.4286570429</v>
+        <v>674033.690731607</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26710,16 +26710,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>1089.776700593299</v>
+      </c>
+      <c r="C3" t="n">
         <v>1089.776700593298</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.198799748375</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483748</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,37 +27018,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>341.306832697355</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973549</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973549</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>64.42451046528083</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>272.5496012734494</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.815736614139922</v>
+        <v>71.8464725129505</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>259.6421064805524</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>194.7652431262834</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>83.32522828944138</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>195.2269274548166</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>222.9250743103414</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>17.3075464271738</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>150.0888768833846</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>9.654070646351539e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.604658557802081e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.674596803735689e-14</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135338</v>
@@ -31759,28 +31759,28 @@
         <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669219</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043724</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,40 +31838,40 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
         <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071781</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704925</v>
+        <v>431.3680753731363</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,43 +31908,43 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908115</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>162.5000833330458</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,25 +33023,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,25 +33500,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,10 +33992,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34141,7 +34141,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159448</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542648</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396417</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367767</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238448</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992795</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561622</v>
+        <v>297.3936679588061</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096348</v>
@@ -35577,16 +35577,16 @@
         <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
         <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463671</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>23.94570355317166</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,25 +36671,25 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,10 +37628,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,10 +37640,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193538</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709315</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
